--- a/vstep_data/Chatbot-VSTEP.xlsx
+++ b/vstep_data/Chatbot-VSTEP.xlsx
@@ -41,25 +41,25 @@
     <t>Các mẹo để đạt được điểm cao và chiến lược cho phần Part 3 Speaking?</t>
   </si>
   <si>
-    <t>Bố cục của một bài thi Listening?</t>
+    <t>Bố cục của một bài thi Nghe</t>
   </si>
   <si>
     <t>Gồm 3 phần (35 câu): Phần 1 gồm 8 câu và 8 cuộc hội thoại, phần 2 gồm 12 câu và 3 đoạn hội thoại, phần 3 là 15 câu và 3 đoạn hội thoại. Mỗi phần nghe sẽ có một đoạn ghi âm nghe từ trước và chỉ kích hoạt khi thí sinh mở file nghe lên, thí sinh sẽ có thời gian đọc đề thoải mái. Thời gian được tính từ lúc nhận đề.</t>
   </si>
   <si>
-    <t>Bố cục của một bài thi Speaking?</t>
+    <t>Bố cục của một bài thi Nói</t>
   </si>
   <si>
     <t>Gồm 3 phần: Phần 1 sẽ liên quan tới giao tiếp xã hội (2 chủ điểm quen thuộc về vấn đề cuộc sống), phần 2 sẽ liên quan tới thảo luận giải pháp của vấn đề được đưa ra (chọn 1 trong 3 giải pháp đã được đưa cho), phần 3 sẽ liên quan tới phát triển củ đề của bài được đưa ra dựa trên 3 ý có sẵn hoặc tự phát triển ý kiến cá và thêm một vài câu hỏi liên quan tới chủ đề đó.</t>
   </si>
   <si>
-    <t>Bố cục của một bài thi Writing?</t>
+    <t>Bố cục của một bài thi Viết</t>
   </si>
   <si>
     <t>Gồm 2 phần: phần một là viết một lá thư email (150 từ), phần hai là phần trọng tâm của một bài luận (220 từ).</t>
   </si>
   <si>
-    <t>Bố cục của một bài thi Reading?</t>
+    <t>Bố cục của một bài thi Đọc</t>
   </si>
   <si>
     <t>Gồm 4 bài, mỗi bài gồm 2000 từ và có 10 câu hỏi theo sau</t>
@@ -489,7 +489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +527,12 @@
       <sz val="12"/>
       <color rgb="FF0a0a0a"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -750,11 +756,11 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -765,7 +771,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29372,7 +29378,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -29406,7 +29412,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -29440,7 +29446,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -29472,7 +29478,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -29506,7 +29512,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="100.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -29540,7 +29546,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -29574,7 +29580,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -29608,7 +29614,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -29642,7 +29648,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="60">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -29676,7 +29682,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -29710,7 +29716,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -29742,7 +29748,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -29776,7 +29782,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -29810,7 +29816,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -29844,7 +29850,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="775.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -29878,7 +29884,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -29910,7 +29916,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -29942,7 +29948,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="46.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -29976,7 +29982,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -30010,7 +30016,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="33">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -30042,7 +30048,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="43.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="33">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -30076,7 +30082,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -30110,7 +30116,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="46.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -30144,7 +30150,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="208.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -30178,7 +30184,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="73.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -30212,7 +30218,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="46.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -30246,7 +30252,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -30280,7 +30286,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60">
       <c r="A29" s="5">
         <v>28</v>
       </c>
